--- a/Part_2_tables/overall_sums.xlsx
+++ b/Part_2_tables/overall_sums.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/overall_sums.xlsx
+++ b/Part_2_tables/overall_sums.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>10104</v>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>10104</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>10104</v>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>9991</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>10104</v>
       </c>
       <c r="D5" t="n">
-        <v>98</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>4966</v>
       </c>
       <c r="D6" t="n">
-        <v>98</v>
+        <v>9971</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>10104</v>
       </c>
       <c r="D7" t="n">
-        <v>98</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>10104</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>64</v>
+        <v>5911</v>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>6975</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>64</v>
+        <v>5911</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>4440</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_tables/overall_sums.xlsx
+++ b/Part_2_tables/overall_sums.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10104</v>
+        <v>9994</v>
       </c>
       <c r="D2" t="n">
         <v>9994</v>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10104</v>
+        <v>9994</v>
       </c>
       <c r="D3" t="n">
         <v>9994</v>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10104</v>
+        <v>9994</v>
       </c>
       <c r="D4" t="n">
         <v>9991</v>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10104</v>
+        <v>9994</v>
       </c>
       <c r="D5" t="n">
         <v>9994</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4966</v>
+        <v>4870</v>
       </c>
       <c r="D6" t="n">
         <v>9971</v>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10104</v>
+        <v>9994</v>
       </c>
       <c r="D7" t="n">
         <v>9994</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10104</v>
+        <v>9994</v>
       </c>
       <c r="D8" t="n">
         <v>5064</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5911</v>
+        <v>5855</v>
       </c>
       <c r="D9" t="n">
         <v>6975</v>
@@ -588,7 +588,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5911</v>
+        <v>5855</v>
       </c>
       <c r="D10" t="n">
         <v>4440</v>

--- a/Part_2_tables/overall_sums.xlsx
+++ b/Part_2_tables/overall_sums.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
       <c r="D2" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
       <c r="D3" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
       <c r="D4" t="n">
-        <v>9991</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +508,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
       <c r="D5" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="6">
@@ -527,7 +527,7 @@
         <v>4870</v>
       </c>
       <c r="D6" t="n">
-        <v>9971</v>
+        <v>9965</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
       <c r="D7" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
     </row>
     <row r="8">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9994</v>
+        <v>9988</v>
       </c>
       <c r="D8" t="n">
         <v>5064</v>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5855</v>
+        <v>5852</v>
       </c>
       <c r="D9" t="n">
-        <v>6975</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5855</v>
+        <v>5852</v>
       </c>
       <c r="D10" t="n">
-        <v>4440</v>
+        <v>4437</v>
       </c>
     </row>
   </sheetData>
